--- a/$ZM.xlsx
+++ b/$ZM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F598D66-F5AD-4190-9B1A-8F25977E5AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952EAD7B-D614-4A30-A518-7DE128FB1FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{3F0362D4-A7F5-4594-8CE4-69E0DCCC12D8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -314,16 +314,104 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Zoom announce to set up R&amp;D centre and hire hundreds of engineers in Singapore</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Deferred Contracts</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses &amp; OCA</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating Lease ROU</t>
+  </si>
+  <si>
+    <t>Strategic Investments</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Accrued Expenses &amp; OCL</t>
+  </si>
+  <si>
+    <t>Deferred Revenues</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Other Liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Lease </t>
+  </si>
+  <si>
+    <t>Share Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +456,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -491,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,7 +676,25 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,7 +725,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -954,7 +1068,7 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1015,8 +1129,11 @@
       <c r="C7" s="11">
         <v>293.836386</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="47" t="str">
+        <f>$C$29</f>
+        <v>Q422</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -1035,7 +1152,7 @@
         <v>20148.360988019998</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -1049,9 +1166,15 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="11">
+        <f>+'Financial Model'!AD68</f>
+        <v>5412.6660000000002</v>
+      </c>
+      <c r="D9" s="47" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$29</f>
+        <v>Q422</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -1065,9 +1188,15 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="11">
+        <f>+'Financial Model'!AD69</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>Q422</v>
+      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -1083,10 +1212,13 @@
       </c>
       <c r="C11" s="11">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="G11" s="5"/>
+        <v>5412.6660000000002</v>
+      </c>
+      <c r="D11" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>Q422</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
@@ -1102,10 +1234,10 @@
       </c>
       <c r="C12" s="12">
         <f>C8-C11</f>
-        <v>20148.360988019998</v>
+        <v>14735.694988019997</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
@@ -1116,7 +1248,7 @@
       <c r="O12" s="27"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="5"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -1127,8 +1259,12 @@
       <c r="O13" s="27"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="5"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="44">
+        <v>44166</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -1143,7 +1279,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -1161,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -1179,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -1197,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -1255,7 +1391,10 @@
       <c r="B27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="43">
+        <f>'Financial Model'!AD33</f>
+        <v>8484</v>
+      </c>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
@@ -1294,8 +1433,11 @@
       <c r="B34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="45">
+        <f>C6/'Financial Model'!AD66</f>
+        <v>2.9780786109979251</v>
+      </c>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
@@ -1315,8 +1457,11 @@
       <c r="B37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="45">
+        <f>C6/'Financial Model'!AD17</f>
+        <v>178.2237520954381</v>
+      </c>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
@@ -1359,19 +1504,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1A9B97-640C-4BEC-A021-C180303AEF99}">
-  <dimension ref="B1:AS29"/>
+  <dimension ref="B1:AS80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="AD80" sqref="AC77:AD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1640,6 +1785,9 @@
       <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="AB12" s="1">
+        <v>2.5379999999999998</v>
+      </c>
       <c r="AC12" s="38">
         <v>43.761000000000003</v>
       </c>
@@ -1651,6 +1799,9 @@
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="AB13" s="1">
+        <v>15.648</v>
+      </c>
       <c r="AC13" s="38">
         <v>-5.72</v>
       </c>
@@ -1664,7 +1815,7 @@
       </c>
       <c r="AB14" s="38">
         <f t="shared" ref="AB14:AC14" si="2">AB11+AB12+AB13</f>
-        <v>659.84799999999996</v>
+        <v>678.03399999999999</v>
       </c>
       <c r="AC14" s="38">
         <f t="shared" si="2"/>
@@ -1679,6 +1830,9 @@
       <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="AB15" s="1">
+        <v>5.718</v>
+      </c>
       <c r="AC15" s="38">
         <v>-274.00700000000001</v>
       </c>
@@ -1692,7 +1846,7 @@
       </c>
       <c r="AB16" s="36">
         <f t="shared" ref="AB16:AC16" si="3">AB14-AB15</f>
-        <v>659.84799999999996</v>
+        <v>672.31600000000003</v>
       </c>
       <c r="AC16" s="36">
         <f t="shared" si="3"/>
@@ -1703,24 +1857,24 @@
         <v>103.7110000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="2:31" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" s="40">
+      <c r="AB17" s="41">
         <f t="shared" ref="AB17:AC17" si="4">AB16/AB18</f>
-        <v>2.3246063268926598</v>
-      </c>
-      <c r="AC17" s="40">
+        <v>2.3685303695262632</v>
+      </c>
+      <c r="AC17" s="41">
         <f t="shared" si="4"/>
         <v>4.642176901381041</v>
       </c>
-      <c r="AD17" s="40">
+      <c r="AD17" s="41">
         <f>AD16/AD18</f>
         <v>0.3847410863804564</v>
       </c>
     </row>
-    <row r="18" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1888,7 @@
         <v>269.56050099999999</v>
       </c>
     </row>
-    <row r="20" spans="2:30" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:31" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
         <v>79</v>
       </c>
@@ -1747,7 +1901,7 @@
         <v>7.1489200617386395E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
@@ -1767,7 +1921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
         <v>75</v>
       </c>
@@ -1784,7 +1938,7 @@
         <v>0.74949669471153846</v>
       </c>
     </row>
-    <row r="24" spans="2:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
         <v>76</v>
       </c>
@@ -1801,30 +1955,49 @@
         <v>5.5868708114801886E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="37" t="s">
         <v>77</v>
+      </c>
+      <c r="AC25" s="37">
+        <f>AC16/AC4</f>
+        <v>0.33553283718679439</v>
       </c>
       <c r="AD25" s="37">
         <f>AD16/AD4</f>
         <v>2.3608455346736619E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB26" s="37">
+        <f t="shared" ref="AB26:AD26" si="7">AB15/AB14</f>
+        <v>8.4332054144777395E-3</v>
+      </c>
+      <c r="AC26" s="37">
+        <f t="shared" si="7"/>
+        <v>-0.24872825045024125</v>
+      </c>
+      <c r="AD26" s="37">
+        <f>AD15/AD14</f>
+        <v>0.58395112245061676</v>
+      </c>
+      <c r="AE26" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="37" t="s">
         <v>88</v>
       </c>
       <c r="AB28" s="37">
-        <f t="shared" ref="AB28:AD28" si="7">AB7/AB4</f>
+        <f t="shared" ref="AB28:AD28" si="8">AB7/AB4</f>
         <v>6.1885034442597187E-2</v>
       </c>
       <c r="AC28" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8537083181295786E-2</v>
       </c>
       <c r="AD28" s="37">
@@ -1832,17 +2005,542 @@
         <v>0.17620442708333334</v>
       </c>
     </row>
-    <row r="29" spans="2:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
         <v>89</v>
       </c>
       <c r="AC29" s="37">
-        <f t="shared" ref="AC29:AD29" si="8">AC7/AB7-1</f>
+        <f t="shared" ref="AC29:AD29" si="9">AC7/AB7-1</f>
         <v>1.2122745002437836</v>
       </c>
       <c r="AD29" s="37">
         <f>AD7/AC7-1</f>
         <v>1.1324526846469598</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD33" s="40">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B37" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36">
+        <v>1062.82</v>
+      </c>
+      <c r="AD38" s="36">
+        <v>1086.83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36">
+        <v>4356.4459999999999</v>
+      </c>
+      <c r="AD39" s="36">
+        <v>4325.8360000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38">
+        <v>419.673</v>
+      </c>
+      <c r="AD40" s="38">
+        <v>557.404</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38">
+        <v>199.26599999999999</v>
+      </c>
+      <c r="AD41" s="38">
+        <v>223.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38">
+        <v>145.602</v>
+      </c>
+      <c r="AD42" s="38">
+        <v>163.09200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB43" s="38">
+        <f t="shared" ref="AB43:AC43" si="10">SUM(AB38:AB42)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="38">
+        <f t="shared" si="10"/>
+        <v>6183.8069999999989</v>
+      </c>
+      <c r="AD43" s="38">
+        <f>SUM(AD38:AD42)</f>
+        <v>6356.4119999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38">
+        <v>164.714</v>
+      </c>
+      <c r="AD44" s="38">
+        <v>179.99100000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38">
+        <v>222.35400000000001</v>
+      </c>
+      <c r="AD45" s="38">
+        <v>252.821</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38">
+        <v>95.965000000000003</v>
+      </c>
+      <c r="AD46" s="38">
+        <v>80.906000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38">
+        <v>367.81400000000002</v>
+      </c>
+      <c r="AD47" s="38">
+        <v>398.99200000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38">
+        <v>27.606999999999999</v>
+      </c>
+      <c r="AD48" s="38">
+        <v>122.64100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38">
+        <v>382.29599999999999</v>
+      </c>
+      <c r="AD49" s="38">
+        <v>558.428</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38">
+        <v>106.761</v>
+      </c>
+      <c r="AD50" s="38">
+        <v>177.874</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB51" s="38">
+        <f t="shared" ref="AB51:AC51" si="11">SUM(AB43:AB50)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="38">
+        <f t="shared" si="11"/>
+        <v>7551.3180000000002</v>
+      </c>
+      <c r="AD51" s="38">
+        <f>SUM(AD43:AD50)</f>
+        <v>8128.0649999999987</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB52" s="38"/>
+      <c r="AC52" s="38"/>
+      <c r="AD52" s="38"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="38">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="AD53" s="38">
+        <v>14.414</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="38">
+        <v>430.41500000000002</v>
+      </c>
+      <c r="AD54" s="38">
+        <v>457.71600000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="38">
+        <v>1141.4349999999999</v>
+      </c>
+      <c r="AD55" s="38">
+        <v>1266.5139999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB56" s="38">
+        <f t="shared" ref="AB56:AC56" si="12">SUM(AB53:AB55)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="38">
+        <f t="shared" si="12"/>
+        <v>1579.691</v>
+      </c>
+      <c r="AD56" s="38">
+        <f>SUM(AD53:AD55)</f>
+        <v>1738.6439999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38">
+        <v>38.481000000000002</v>
+      </c>
+      <c r="AD57" s="38">
+        <v>41.932000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB58" s="38"/>
+      <c r="AC58" s="38">
+        <v>85.018000000000001</v>
+      </c>
+      <c r="AD58" s="38">
+        <v>73.686999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38">
+        <v>68.11</v>
+      </c>
+      <c r="AD59" s="38">
+        <v>67.194999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB60" s="38">
+        <f t="shared" ref="AB60:AC60" si="13">SUM(AB56:AB59)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="38">
+        <f t="shared" si="13"/>
+        <v>1771.3</v>
+      </c>
+      <c r="AD60" s="38">
+        <f>SUM(AD56:AD59)</f>
+        <v>1921.4579999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+    </row>
+    <row r="62" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC62" s="38">
+        <v>5780.018</v>
+      </c>
+      <c r="AD62" s="38">
+        <v>6206.607</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB63" s="38">
+        <f t="shared" ref="AB63:AC63" si="14">AB62+AB60</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="38">
+        <f t="shared" si="14"/>
+        <v>7551.3180000000002</v>
+      </c>
+      <c r="AD63" s="38">
+        <f>AD62+AD60</f>
+        <v>8128.0649999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB65" s="38">
+        <f t="shared" ref="AB65:AD65" si="15">AB51-AB60</f>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="38">
+        <f t="shared" si="15"/>
+        <v>5780.018</v>
+      </c>
+      <c r="AD65" s="38">
+        <f>AD51-AD60</f>
+        <v>6206.6069999999991</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC66" s="1">
+        <f>AC65/AC18</f>
+        <v>19.505019884698424</v>
+      </c>
+      <c r="AD66" s="1">
+        <f>AD65/AD18</f>
+        <v>23.024912689266738</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB68" s="38">
+        <f t="shared" ref="AB68:AD68" si="16">+AB38+AB39</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="38">
+        <f t="shared" si="16"/>
+        <v>5419.2659999999996</v>
+      </c>
+      <c r="AD68" s="38">
+        <f>+AD38+AD39</f>
+        <v>5412.6660000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB70" s="38">
+        <f t="shared" ref="AB70:AC70" si="17">AB68-AB69</f>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="38">
+        <f t="shared" si="17"/>
+        <v>5419.2659999999996</v>
+      </c>
+      <c r="AD70" s="38">
+        <f>AD68-AD69</f>
+        <v>5412.6660000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC72" s="38">
+        <v>154.28</v>
+      </c>
+      <c r="AD72" s="38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC73" s="38">
+        <f>AC72*AC18</f>
+        <v>45718.547446320001</v>
+      </c>
+      <c r="AD73" s="38">
+        <f>AD72*AD18</f>
+        <v>20217.037574999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC74" s="38">
+        <f>AC73-AC70</f>
+        <v>40299.281446320005</v>
+      </c>
+      <c r="AD74" s="38">
+        <f>AD73-AD70</f>
+        <v>14804.371574999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC76" s="48">
+        <f>AC72/AC66</f>
+        <v>7.9097586627446494</v>
+      </c>
+      <c r="AD76" s="48">
+        <f>AD72/AD66</f>
+        <v>3.2573413420569408</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC77" s="48">
+        <f t="shared" ref="AC77:AD77" si="18">AC73/AC4</f>
+        <v>11.151235125438308</v>
+      </c>
+      <c r="AD77" s="48">
+        <f>AD73/AD4</f>
+        <v>4.6021446985631549</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC78" s="48">
+        <f t="shared" ref="AC78:AD78" si="19">AC74/AC4</f>
+        <v>9.8294190847111054</v>
+      </c>
+      <c r="AD78" s="48">
+        <f>AD74/AD4</f>
+        <v>3.3700219385107073</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC79" s="48">
+        <f t="shared" ref="AC79:AD79" si="20">AC72/AC17</f>
+        <v>33.234407752557196</v>
+      </c>
+      <c r="AD79" s="48">
+        <f>AD72/AD17</f>
+        <v>194.93629002709432</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC80" s="48">
+        <f t="shared" ref="AC80:AD80" si="21">AC74/AC16</f>
+        <v>29.294954160444725</v>
+      </c>
+      <c r="AD80" s="48">
+        <f>AD74/AD16</f>
+        <v>142.74639695885665</v>
       </c>
     </row>
   </sheetData>
@@ -1850,6 +2548,7 @@
     <hyperlink ref="AD1" r:id="rId1" xr:uid="{9FFC0EB7-CD42-4E75-98D5-61F6781D85FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>